--- a/dumps/Stocks/Wipro Ltd.xlsx
+++ b/dumps/Stocks/Wipro Ltd.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trading History'!$A$4:$AG$17</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_7AA470B9_2452_4BBC_9CAF_C5006034203F_.wvu.FilterData">'Trading History'!$A$4:$AR$77</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_D82FADFD_0600_4F91_A2CA_5E720CFE369E_.wvu.FilterData">'Trading History'!$A$4:$AR$77</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7AA470B9-2452-4BBC-9CAF-C5006034203F}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D82FADFD-0600-4F91-A2CA-5E720CFE369E}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -769,8 +769,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:WIPRO"", ""price"")"),230.4)</f>
-        <v>230.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""NSE:WIPRO"", ""price"")"),229.9)</f>
+        <v>229.9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="C6" s="9">
         <f>sum('Trading History'!K4:K1003)</f>
-        <v>-14879.63</v>
+        <v>-14924.63</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="10" t="s">
@@ -901,7 +901,7 @@
       </c>
       <c r="I6" s="9">
         <f>sum('Trading History'!U4:U1003)</f>
-        <v>-14879.63</v>
+        <v>-14924.63</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="12" t="s">
@@ -979,7 +979,7 @@
       </c>
       <c r="C8" s="9">
         <f>sum('Trading History'!L4:L1003)</f>
-        <v>20736</v>
+        <v>20691</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="10" t="s">
@@ -995,7 +995,7 @@
       </c>
       <c r="I8" s="9">
         <f>sum('Trading History'!V4:V1003)</f>
-        <v>20736</v>
+        <v>20691</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="12" t="s">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C9" s="14">
         <f>Index!C6/(Index!C7*Index!$C$2)</f>
-        <v>-0.7175747493</v>
+        <v>-0.7213102315</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="10" t="s">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="I9" s="14">
         <f>IFERROR(Index!I6/(Index!I7*Index!$C$2), 0)</f>
-        <v>-0.7175747493</v>
+        <v>-0.7213102315</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="12" t="s">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C10" s="15">
         <f>AVERAGE('Trading History'!N4:N1003)</f>
-        <v>-1.269365007</v>
+        <v>-1.267104744</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="10" t="s">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="I10" s="15">
         <f>IFERROR(AVERAGE('Trading History'!X4:X1003), 0)</f>
-        <v>-1.269365007</v>
+        <v>-1.267104744</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="12" t="s">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C11" s="15">
         <f>AVERAGE('Trading History'!O4:O1003)</f>
-        <v>-168.0416717</v>
+        <v>-168.5416717</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="10" t="s">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="I11" s="15">
         <f>IFERROR(AVERAGE('Trading History'!Y4:Y1003), 0)</f>
-        <v>-168.0416717</v>
+        <v>-168.5416717</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="12" t="s">
@@ -28304,7 +28304,7 @@
       </c>
       <c r="F5" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G5" s="43">
         <v>1902.19</v>
@@ -28320,11 +28320,11 @@
       </c>
       <c r="K5" s="43">
         <f t="shared" ref="K5:K17" si="1">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV"), (F5*D5)-(E5*D5), "")</f>
-        <v>-736.76</v>
+        <v>-739.26</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" ref="L5:L17" si="2">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV"), F5*D5, "")</f>
-        <v>1152</v>
+        <v>1149.5</v>
       </c>
       <c r="M5" s="46">
         <f t="shared" ref="M5:M17" si="3">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV"), D5, "")</f>
@@ -28332,11 +28332,11 @@
       </c>
       <c r="N5" s="47">
         <f t="shared" ref="N5:N17" si="4">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5)), K5/(NOW()-A5),"")</f>
-        <v>-0.8819085128</v>
+        <v>-0.879615959</v>
       </c>
       <c r="O5" s="48">
         <f t="shared" ref="O5:O17" si="5">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5)), K5/D5,"")</f>
-        <v>-147.352</v>
+        <v>-147.852</v>
       </c>
       <c r="P5" s="43" t="str">
         <f t="shared" ref="P5:P11" si="6">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (F5*D5)-(E5*D5), "")</f>
@@ -28360,11 +28360,11 @@
       </c>
       <c r="U5" s="51">
         <f t="shared" ref="U5:U11" si="11">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (F5*D5)-(E5*D5), "")</f>
-        <v>-736.76</v>
+        <v>-739.26</v>
       </c>
       <c r="V5" s="51">
         <f t="shared" ref="V5:V11" si="12">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), F5*D5, "")</f>
-        <v>1152</v>
+        <v>1149.5</v>
       </c>
       <c r="W5" s="51">
         <f t="shared" ref="W5:W11" si="13">IF(AND( C5="Buy", ISBLANK(Z5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
@@ -28372,11 +28372,11 @@
       </c>
       <c r="X5" s="52">
         <f t="shared" ref="X5:X11" si="14">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5), NOW()-A5 &gt; 365), K5/(NOW()-A5),"")</f>
-        <v>-0.8819085127</v>
+        <v>-0.8796159589</v>
       </c>
       <c r="Y5" s="51">
         <f t="shared" ref="Y5:Y11" si="15">IF(AND(B5&lt;&gt;"DIV", C5="Buy", ISBLANK(Z5), NOW()-A5 &gt; 365), K5/D5,"")</f>
-        <v>-147.352</v>
+        <v>-147.852</v>
       </c>
       <c r="Z5" s="43"/>
       <c r="AA5" s="43"/>
@@ -28413,7 +28413,7 @@
       </c>
       <c r="F6" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G6" s="43">
         <v>2173.79</v>
@@ -28429,11 +28429,11 @@
       </c>
       <c r="K6" s="43">
         <f t="shared" si="1"/>
-        <v>-1006.51</v>
+        <v>-1009.01</v>
       </c>
       <c r="L6" s="45">
         <f t="shared" si="2"/>
-        <v>1152</v>
+        <v>1149.5</v>
       </c>
       <c r="M6" s="46">
         <f t="shared" si="3"/>
@@ -28441,11 +28441,11 @@
       </c>
       <c r="N6" s="47">
         <f t="shared" si="4"/>
-        <v>-1.144521621</v>
+        <v>-1.140852691</v>
       </c>
       <c r="O6" s="48">
         <f t="shared" si="5"/>
-        <v>-201.302</v>
+        <v>-201.802</v>
       </c>
       <c r="P6" s="43" t="str">
         <f t="shared" si="6"/>
@@ -28469,11 +28469,11 @@
       </c>
       <c r="U6" s="51">
         <f t="shared" si="11"/>
-        <v>-1006.51</v>
+        <v>-1009.01</v>
       </c>
       <c r="V6" s="51">
         <f t="shared" si="12"/>
-        <v>1152</v>
+        <v>1149.5</v>
       </c>
       <c r="W6" s="51">
         <f t="shared" si="13"/>
@@ -28481,11 +28481,11 @@
       </c>
       <c r="X6" s="52">
         <f t="shared" si="14"/>
-        <v>-1.144521621</v>
+        <v>-1.140852691</v>
       </c>
       <c r="Y6" s="51">
         <f t="shared" si="15"/>
-        <v>-201.302</v>
+        <v>-201.802</v>
       </c>
       <c r="Z6" s="43"/>
       <c r="AA6" s="43"/>
@@ -28519,7 +28519,7 @@
       </c>
       <c r="F7" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G7" s="43">
         <v>3790.45</v>
@@ -28535,11 +28535,11 @@
       </c>
       <c r="K7" s="43">
         <f t="shared" si="1"/>
-        <v>-1690.190001</v>
+        <v>-1694.690001</v>
       </c>
       <c r="L7" s="45">
         <f t="shared" si="2"/>
-        <v>2073.6</v>
+        <v>2069.1</v>
       </c>
       <c r="M7" s="46">
         <f t="shared" si="3"/>
@@ -28547,11 +28547,11 @@
       </c>
       <c r="N7" s="47">
         <f t="shared" si="4"/>
-        <v>-1.881301123</v>
+        <v>-1.875829565</v>
       </c>
       <c r="O7" s="48">
         <f t="shared" si="5"/>
-        <v>-187.798889</v>
+        <v>-188.298889</v>
       </c>
       <c r="P7" s="43" t="str">
         <f t="shared" si="6"/>
@@ -28575,11 +28575,11 @@
       </c>
       <c r="U7" s="51">
         <f t="shared" si="11"/>
-        <v>-1690.190001</v>
+        <v>-1694.690001</v>
       </c>
       <c r="V7" s="51">
         <f t="shared" si="12"/>
-        <v>2073.6</v>
+        <v>2069.1</v>
       </c>
       <c r="W7" s="51">
         <f t="shared" si="13"/>
@@ -28587,11 +28587,11 @@
       </c>
       <c r="X7" s="52">
         <f t="shared" si="14"/>
-        <v>-1.881301123</v>
+        <v>-1.875829565</v>
       </c>
       <c r="Y7" s="51">
         <f t="shared" si="15"/>
-        <v>-187.798889</v>
+        <v>-188.298889</v>
       </c>
       <c r="Z7" s="43"/>
       <c r="AA7" s="43"/>
@@ -28625,7 +28625,7 @@
       </c>
       <c r="F8" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G8" s="43">
         <v>819.77</v>
@@ -28641,11 +28641,11 @@
       </c>
       <c r="K8" s="43">
         <f t="shared" si="1"/>
-        <v>-353.19</v>
+        <v>-354.19</v>
       </c>
       <c r="L8" s="45">
         <f t="shared" si="2"/>
-        <v>460.8</v>
+        <v>459.8</v>
       </c>
       <c r="M8" s="46">
         <f t="shared" si="3"/>
@@ -28653,11 +28653,11 @@
       </c>
       <c r="N8" s="47">
         <f t="shared" si="4"/>
-        <v>-0.3800130488</v>
+        <v>-0.3790418987</v>
       </c>
       <c r="O8" s="48">
         <f t="shared" si="5"/>
-        <v>-176.595</v>
+        <v>-177.095</v>
       </c>
       <c r="P8" s="43" t="str">
         <f t="shared" si="6"/>
@@ -28681,11 +28681,11 @@
       </c>
       <c r="U8" s="51">
         <f t="shared" si="11"/>
-        <v>-353.19</v>
+        <v>-354.19</v>
       </c>
       <c r="V8" s="51">
         <f t="shared" si="12"/>
-        <v>460.8</v>
+        <v>459.8</v>
       </c>
       <c r="W8" s="51">
         <f t="shared" si="13"/>
@@ -28693,11 +28693,11 @@
       </c>
       <c r="X8" s="52">
         <f t="shared" si="14"/>
-        <v>-0.3800130488</v>
+        <v>-0.3790418987</v>
       </c>
       <c r="Y8" s="51">
         <f t="shared" si="15"/>
-        <v>-176.595</v>
+        <v>-177.095</v>
       </c>
       <c r="Z8" s="43"/>
       <c r="AA8" s="43"/>
@@ -28731,7 +28731,7 @@
       </c>
       <c r="F9" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G9" s="43">
         <v>1639.52</v>
@@ -28747,11 +28747,11 @@
       </c>
       <c r="K9" s="43">
         <f t="shared" si="1"/>
-        <v>-706.4</v>
+        <v>-708.4</v>
       </c>
       <c r="L9" s="45">
         <f t="shared" si="2"/>
-        <v>921.6</v>
+        <v>919.6</v>
       </c>
       <c r="M9" s="46">
         <f t="shared" si="3"/>
@@ -28759,11 +28759,11 @@
       </c>
       <c r="N9" s="47">
         <f t="shared" si="4"/>
-        <v>-0.7600476164</v>
+        <v>-0.7581052006</v>
       </c>
       <c r="O9" s="48">
         <f t="shared" si="5"/>
-        <v>-176.6</v>
+        <v>-177.1</v>
       </c>
       <c r="P9" s="43" t="str">
         <f t="shared" si="6"/>
@@ -28787,11 +28787,11 @@
       </c>
       <c r="U9" s="51">
         <f t="shared" si="11"/>
-        <v>-706.4</v>
+        <v>-708.4</v>
       </c>
       <c r="V9" s="51">
         <f t="shared" si="12"/>
-        <v>921.6</v>
+        <v>919.6</v>
       </c>
       <c r="W9" s="51">
         <f t="shared" si="13"/>
@@ -28799,11 +28799,11 @@
       </c>
       <c r="X9" s="52">
         <f t="shared" si="14"/>
-        <v>-0.7600476164</v>
+        <v>-0.7581052006</v>
       </c>
       <c r="Y9" s="51">
         <f t="shared" si="15"/>
-        <v>-176.6</v>
+        <v>-177.1</v>
       </c>
       <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
@@ -28837,7 +28837,7 @@
       </c>
       <c r="F10" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G10" s="43">
         <v>3669.87</v>
@@ -28853,11 +28853,11 @@
       </c>
       <c r="K10" s="43">
         <f t="shared" si="1"/>
-        <v>-1340.03</v>
+        <v>-1345.03</v>
       </c>
       <c r="L10" s="45">
         <f t="shared" si="2"/>
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="M10" s="46">
         <f t="shared" si="3"/>
@@ -28865,11 +28865,11 @@
       </c>
       <c r="N10" s="47">
         <f t="shared" si="4"/>
-        <v>-1.305543477</v>
+        <v>-1.304037634</v>
       </c>
       <c r="O10" s="48">
         <f t="shared" si="5"/>
-        <v>-134.003</v>
+        <v>-134.503</v>
       </c>
       <c r="P10" s="43" t="str">
         <f t="shared" si="6"/>
@@ -28893,11 +28893,11 @@
       </c>
       <c r="U10" s="51">
         <f t="shared" si="11"/>
-        <v>-1340.03</v>
+        <v>-1345.03</v>
       </c>
       <c r="V10" s="51">
         <f t="shared" si="12"/>
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="W10" s="51">
         <f t="shared" si="13"/>
@@ -28905,11 +28905,11 @@
       </c>
       <c r="X10" s="52">
         <f t="shared" si="14"/>
-        <v>-1.305543477</v>
+        <v>-1.304037634</v>
       </c>
       <c r="Y10" s="51">
         <f t="shared" si="15"/>
-        <v>-134.003</v>
+        <v>-134.503</v>
       </c>
       <c r="Z10" s="43"/>
       <c r="AA10" s="43"/>
@@ -28943,7 +28943,7 @@
       </c>
       <c r="F11" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G11" s="43">
         <v>2051.95</v>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="K11" s="43">
         <f t="shared" si="1"/>
-        <v>-885.5</v>
+        <v>-888</v>
       </c>
       <c r="L11" s="45">
         <f t="shared" si="2"/>
-        <v>1152</v>
+        <v>1149.5</v>
       </c>
       <c r="M11" s="46">
         <f t="shared" si="3"/>
@@ -28971,11 +28971,11 @@
       </c>
       <c r="N11" s="47">
         <f t="shared" si="4"/>
-        <v>-0.7974492766</v>
+        <v>-0.7961020004</v>
       </c>
       <c r="O11" s="48">
         <f t="shared" si="5"/>
-        <v>-177.1</v>
+        <v>-177.6</v>
       </c>
       <c r="P11" s="43" t="str">
         <f t="shared" si="6"/>
@@ -28999,11 +28999,11 @@
       </c>
       <c r="U11" s="51">
         <f t="shared" si="11"/>
-        <v>-885.5</v>
+        <v>-888</v>
       </c>
       <c r="V11" s="51">
         <f t="shared" si="12"/>
-        <v>1152</v>
+        <v>1149.5</v>
       </c>
       <c r="W11" s="51">
         <f t="shared" si="13"/>
@@ -29011,11 +29011,11 @@
       </c>
       <c r="X11" s="52">
         <f t="shared" si="14"/>
-        <v>-0.7974492766</v>
+        <v>-0.7961020004</v>
       </c>
       <c r="Y11" s="51">
         <f t="shared" si="15"/>
-        <v>-177.1</v>
+        <v>-177.6</v>
       </c>
       <c r="Z11" s="43"/>
       <c r="AA11" s="43"/>
@@ -29049,7 +29049,7 @@
       </c>
       <c r="F12" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G12" s="43">
         <v>10.0</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="F13" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G13" s="43">
         <v>40.0</v>
@@ -29261,7 +29261,7 @@
       </c>
       <c r="F14" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G14" s="43">
         <v>3963.36</v>
@@ -29277,11 +29277,11 @@
       </c>
       <c r="K14" s="43">
         <f t="shared" si="1"/>
-        <v>-1631.54</v>
+        <v>-1636.54</v>
       </c>
       <c r="L14" s="45">
         <f t="shared" si="2"/>
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="M14" s="46">
         <f t="shared" si="3"/>
@@ -29289,11 +29289,11 @@
       </c>
       <c r="N14" s="47">
         <f t="shared" si="4"/>
-        <v>-1.419451944</v>
+        <v>-1.417611266</v>
       </c>
       <c r="O14" s="48">
         <f t="shared" si="5"/>
-        <v>-163.154</v>
+        <v>-163.654</v>
       </c>
       <c r="P14" s="43" t="str">
         <f t="shared" ref="P14:P17" si="21">IF(AND( C14="Buy", ISBLANK(Z14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (F14*D14)-(E14*D14), "")</f>
@@ -29317,11 +29317,11 @@
       </c>
       <c r="U14" s="51">
         <f t="shared" ref="U14:U17" si="26">IF(AND( C14="Buy", ISBLANK(Z14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (F14*D14)-(E14*D14), "")</f>
-        <v>-1631.54</v>
+        <v>-1636.54</v>
       </c>
       <c r="V14" s="51">
         <f t="shared" ref="V14:V17" si="27">IF(AND( C14="Buy", ISBLANK(Z14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), F14*D14, "")</f>
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="W14" s="51">
         <f t="shared" ref="W14:W17" si="28">IF(AND( C14="Buy", ISBLANK(Z14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
@@ -29329,11 +29329,11 @@
       </c>
       <c r="X14" s="52">
         <f t="shared" ref="X14:X17" si="29">IF(AND(B14&lt;&gt;"DIV", C14="Buy", ISBLANK(Z14), NOW()-A14 &gt; 365), K14/(NOW()-A14),"")</f>
-        <v>-1.419451944</v>
+        <v>-1.417611266</v>
       </c>
       <c r="Y14" s="51">
         <f t="shared" ref="Y14:Y17" si="30">IF(AND(B14&lt;&gt;"DIV", C14="Buy", ISBLANK(Z14), NOW()-A14 &gt; 365), K14/D14,"")</f>
-        <v>-163.154</v>
+        <v>-163.654</v>
       </c>
       <c r="Z14" s="43"/>
       <c r="AA14" s="43"/>
@@ -29367,7 +29367,7 @@
       </c>
       <c r="F15" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G15" s="43">
         <v>4002.69</v>
@@ -29383,11 +29383,11 @@
       </c>
       <c r="K15" s="43">
         <f t="shared" si="1"/>
-        <v>-1670.51</v>
+        <v>-1675.51</v>
       </c>
       <c r="L15" s="45">
         <f t="shared" si="2"/>
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="M15" s="46">
         <f t="shared" si="3"/>
@@ -29395,11 +29395,11 @@
       </c>
       <c r="N15" s="47">
         <f t="shared" si="4"/>
-        <v>-1.427279514</v>
+        <v>-1.425438295</v>
       </c>
       <c r="O15" s="48">
         <f t="shared" si="5"/>
-        <v>-167.051</v>
+        <v>-167.551</v>
       </c>
       <c r="P15" s="43" t="str">
         <f t="shared" si="21"/>
@@ -29423,11 +29423,11 @@
       </c>
       <c r="U15" s="51">
         <f t="shared" si="26"/>
-        <v>-1670.51</v>
+        <v>-1675.51</v>
       </c>
       <c r="V15" s="51">
         <f t="shared" si="27"/>
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="W15" s="51">
         <f t="shared" si="28"/>
@@ -29435,11 +29435,11 @@
       </c>
       <c r="X15" s="52">
         <f t="shared" si="29"/>
-        <v>-1.427279514</v>
+        <v>-1.425438295</v>
       </c>
       <c r="Y15" s="51">
         <f t="shared" si="30"/>
-        <v>-167.051</v>
+        <v>-167.551</v>
       </c>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
@@ -29473,7 +29473,7 @@
       </c>
       <c r="F16" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G16" s="43">
         <v>3821.85</v>
@@ -29489,11 +29489,11 @@
       </c>
       <c r="K16" s="43">
         <f t="shared" si="1"/>
-        <v>-1491.05</v>
+        <v>-1496.05</v>
       </c>
       <c r="L16" s="45">
         <f t="shared" si="2"/>
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="M16" s="46">
         <f t="shared" si="3"/>
@@ -29501,11 +29501,11 @@
       </c>
       <c r="N16" s="47">
         <f t="shared" si="4"/>
-        <v>-1.234910482</v>
+        <v>-1.233921863</v>
       </c>
       <c r="O16" s="48">
         <f t="shared" si="5"/>
-        <v>-149.105</v>
+        <v>-149.605</v>
       </c>
       <c r="P16" s="43" t="str">
         <f t="shared" si="21"/>
@@ -29529,11 +29529,11 @@
       </c>
       <c r="U16" s="51">
         <f t="shared" si="26"/>
-        <v>-1491.05</v>
+        <v>-1496.05</v>
       </c>
       <c r="V16" s="51">
         <f t="shared" si="27"/>
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="W16" s="51">
         <f t="shared" si="28"/>
@@ -29541,11 +29541,11 @@
       </c>
       <c r="X16" s="52">
         <f t="shared" si="29"/>
-        <v>-1.234910482</v>
+        <v>-1.233921863</v>
       </c>
       <c r="Y16" s="51">
         <f t="shared" si="30"/>
-        <v>-149.105</v>
+        <v>-149.605</v>
       </c>
       <c r="Z16" s="43"/>
       <c r="AA16" s="43"/>
@@ -29579,7 +29579,7 @@
       </c>
       <c r="F17" s="43">
         <f>Index!$C$2</f>
-        <v>230.4</v>
+        <v>229.9</v>
       </c>
       <c r="G17" s="43">
         <v>8032.25</v>
@@ -29595,11 +29595,11 @@
       </c>
       <c r="K17" s="43">
         <f t="shared" si="1"/>
-        <v>-3367.95</v>
+        <v>-3377.95</v>
       </c>
       <c r="L17" s="45">
         <f t="shared" si="2"/>
-        <v>4608</v>
+        <v>4598</v>
       </c>
       <c r="M17" s="46">
         <f t="shared" si="3"/>
@@ -29607,11 +29607,11 @@
       </c>
       <c r="N17" s="47">
         <f t="shared" si="4"/>
-        <v>-2.730588457</v>
+        <v>-2.727595812</v>
       </c>
       <c r="O17" s="48">
         <f t="shared" si="5"/>
-        <v>-168.3975</v>
+        <v>-168.8975</v>
       </c>
       <c r="P17" s="43" t="str">
         <f t="shared" si="21"/>
@@ -29635,11 +29635,11 @@
       </c>
       <c r="U17" s="51">
         <f t="shared" si="26"/>
-        <v>-3367.95</v>
+        <v>-3377.95</v>
       </c>
       <c r="V17" s="51">
         <f t="shared" si="27"/>
-        <v>4608</v>
+        <v>4598</v>
       </c>
       <c r="W17" s="51">
         <f t="shared" si="28"/>
@@ -29647,11 +29647,11 @@
       </c>
       <c r="X17" s="52">
         <f t="shared" si="29"/>
-        <v>-2.730588457</v>
+        <v>-2.727595812</v>
       </c>
       <c r="Y17" s="51">
         <f t="shared" si="30"/>
-        <v>-168.3975</v>
+        <v>-168.8975</v>
       </c>
       <c r="Z17" s="43"/>
       <c r="AA17" s="43"/>
@@ -45381,7 +45381,7 @@
   </sheetData>
   <autoFilter ref="$A$4:$AG$17"/>
   <customSheetViews>
-    <customSheetView guid="{7AA470B9-2452-4BBC-9CAF-C5006034203F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D82FADFD-0600-4F91-A2CA-5E720CFE369E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$4:$AR$77"/>
     </customSheetView>
   </customSheetViews>
